--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_TechGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_TechGlobal.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="4"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG007X" sheetId="43" r:id="rId1"/>
-    <sheet name="TG102E" sheetId="46" r:id="rId2"/>
+    <sheet name="TG102SE" sheetId="46" r:id="rId2"/>
     <sheet name="TG007S" sheetId="47" r:id="rId3"/>
     <sheet name="TG102" sheetId="45" r:id="rId4"/>
     <sheet name="TG007" sheetId="44" r:id="rId5"/>
@@ -24,13 +24,13 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TG007S!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG007X!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'TG102'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102E!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102SE!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">TongThang!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="4">'TG007'!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="2">TG007S!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="0">TG007X!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="3">'TG102'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">TG102E!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">TG102SE!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="5">TongThang!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="131">
   <si>
     <t>STT</t>
   </si>
@@ -254,12 +254,195 @@
   <si>
     <t>TG007</t>
   </si>
+  <si>
+    <t>LE.3.00.---01.210415</t>
+  </si>
+  <si>
+    <t>203.162.121.024,09207</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>Nạp lại FW module</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>221.132.035.067,10214</t>
+  </si>
+  <si>
+    <t>LE.1.00.---05.190404</t>
+  </si>
+  <si>
+    <t>Xử lý lại khay sim</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>LK,NCFW</t>
+  </si>
+  <si>
+    <t>Lock: 123.31.30.77,01202</t>
+  </si>
+  <si>
+    <t>Thiết bị chập nguồn</t>
+  </si>
+  <si>
+    <t>Thay diode quá áp, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>NG,NCFW</t>
+  </si>
+  <si>
+    <t>LE.3.00.---01.200923</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.180405</t>
+  </si>
+  <si>
+    <t>Lock: 014.225.007.016,09007</t>
+  </si>
+  <si>
+    <t>123.31.30.77,09207</t>
+  </si>
+  <si>
+    <t>Mất giao tiếp RS232</t>
+  </si>
+  <si>
+    <t>Thay ic giao tiếp</t>
+  </si>
+  <si>
+    <t>Thay khay sim</t>
+  </si>
+  <si>
+    <t>Sóng GSM yếu</t>
+  </si>
+  <si>
+    <t>Xử lý lại anten GSM, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>GSM,NCFW</t>
+  </si>
+  <si>
+    <t>203.162.121.026,09207</t>
+  </si>
+  <si>
+    <t>Mất nguồn module GSM/GPS</t>
+  </si>
+  <si>
+    <t>Xử lý lại nguồn module GSM/GPS, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>014.225.007.016,09207</t>
+  </si>
+  <si>
+    <t>Sai baudrate GPS</t>
+  </si>
+  <si>
+    <t>Cấu hình lại baudrate GPS</t>
+  </si>
+  <si>
+    <t>TG102SE</t>
+  </si>
+  <si>
+    <t>SE.3.00.---01.120817</t>
+  </si>
+  <si>
+    <t>quanlyxe.net,08000</t>
+  </si>
+  <si>
+    <t>Thay module GPS</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.121.024,09107</t>
+  </si>
+  <si>
+    <t>Thay module GSM</t>
+  </si>
+  <si>
+    <t>Imei: 868004027123721</t>
+  </si>
+  <si>
+    <t>Cấu hình lại thiết bị</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG.007.---16.051017 </t>
+  </si>
+  <si>
+    <t>203.162.121.026,09007</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.121.026,09007</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi nguồn</t>
+  </si>
+  <si>
+    <t>Xử lý lại nguồn</t>
+  </si>
+  <si>
+    <t>Imei: 868004026301690</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG.007.---14.060116 </t>
+  </si>
+  <si>
+    <t>Lock: 103.053.169.214,16868</t>
+  </si>
+  <si>
+    <t>Xử lý lại nguồn, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Chập nổ nguồn</t>
+  </si>
+  <si>
+    <t>Không sửa chữa</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Thiết bị mất cấu hình</t>
+  </si>
+  <si>
+    <t>Xử lý lại khối nguồn</t>
+  </si>
+  <si>
+    <t>B.1.26</t>
+  </si>
+  <si>
+    <t>203.162.121.068,09004</t>
+  </si>
+  <si>
+    <t>X.4.0.0.00002.180125</t>
+  </si>
+  <si>
+    <t>Thiết bị treo, lỗi cập nhật ngày giờ</t>
+  </si>
+  <si>
+    <t>Hết linh kiện, không sửa chữa</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,6 +505,12 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -449,7 +638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -631,29 +820,26 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -673,17 +859,50 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -991,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showZeros="0" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1024,43 +1243,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1105,58 +1324,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="64" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1181,23 +1400,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="68"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1208,30 +1427,48 @@
         <v>44781</v>
       </c>
       <c r="C6" s="54"/>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="77">
+      <c r="E6" s="62">
         <v>868183034678489</v>
       </c>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76" t="s">
+      <c r="F6" s="61"/>
+      <c r="G6" s="61" t="s">
         <v>63</v>
       </c>
       <c r="H6" s="37"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="I6" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K6" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>98</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="2"/>
+      <c r="O6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="56"/>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1247,30 +1484,46 @@
         <v>44781</v>
       </c>
       <c r="C7" s="54"/>
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="77">
+      <c r="E7" s="62">
         <v>860157040235514</v>
       </c>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76" t="s">
+      <c r="F7" s="61"/>
+      <c r="G7" s="61" t="s">
         <v>63</v>
       </c>
       <c r="H7" s="37"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="1"/>
+      <c r="I7" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="K7" s="55"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="L7" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>101</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="56"/>
-      <c r="U7" s="62"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1284,30 +1537,48 @@
         <v>44781</v>
       </c>
       <c r="C8" s="54"/>
-      <c r="D8" s="76" t="s">
+      <c r="D8" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="77">
+      <c r="E8" s="62">
         <v>868183034748389</v>
       </c>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76" t="s">
+      <c r="F8" s="61"/>
+      <c r="G8" s="61" t="s">
         <v>63</v>
       </c>
       <c r="H8" s="37"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="I8" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>74</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
+      <c r="O8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="56"/>
-      <c r="U8" s="62"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1321,30 +1592,46 @@
         <v>44781</v>
       </c>
       <c r="C9" s="54"/>
-      <c r="D9" s="76" t="s">
+      <c r="D9" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="77">
+      <c r="E9" s="62">
         <v>868183034665716</v>
       </c>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76" t="s">
+      <c r="F9" s="61"/>
+      <c r="G9" s="61" t="s">
         <v>63</v>
       </c>
       <c r="H9" s="37"/>
       <c r="I9" s="51"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="J9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>92</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="2"/>
+      <c r="O9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="56"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1358,30 +1645,48 @@
         <v>44781</v>
       </c>
       <c r="C10" s="54"/>
-      <c r="D10" s="76" t="s">
+      <c r="D10" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="77">
-        <v>868183038056276</v>
-      </c>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76" t="s">
+      <c r="E10" s="62">
+        <v>868183034546064</v>
+      </c>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61" t="s">
         <v>63</v>
       </c>
       <c r="H10" s="37"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="I10" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>94</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="2"/>
+      <c r="O10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="56"/>
-      <c r="U10" s="62"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1395,30 +1700,48 @@
         <v>44781</v>
       </c>
       <c r="C11" s="54"/>
-      <c r="D11" s="76" t="s">
+      <c r="D11" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="77">
+      <c r="E11" s="62">
         <v>868183034537212</v>
       </c>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76" t="s">
+      <c r="F11" s="61"/>
+      <c r="G11" s="61" t="s">
         <v>63</v>
       </c>
       <c r="H11" s="58"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="I11" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>79</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="2"/>
+      <c r="O11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="56"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1432,30 +1755,46 @@
         <v>44781</v>
       </c>
       <c r="C12" s="54"/>
-      <c r="D12" s="76" t="s">
+      <c r="D12" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="77">
+      <c r="E12" s="62">
         <v>868183034631619</v>
       </c>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76" t="s">
+      <c r="F12" s="61"/>
+      <c r="G12" s="61" t="s">
         <v>63</v>
       </c>
       <c r="H12" s="58"/>
-      <c r="I12" s="51"/>
+      <c r="I12" s="51" t="s">
+        <v>99</v>
+      </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
+      <c r="K12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L12" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="M12" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="2"/>
+      <c r="O12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="56"/>
-      <c r="U12" s="61" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1471,30 +1810,48 @@
         <v>44781</v>
       </c>
       <c r="C13" s="54"/>
-      <c r="D13" s="76" t="s">
+      <c r="D13" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="77">
+      <c r="E13" s="62">
         <v>867857039897942</v>
       </c>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76" t="s">
+      <c r="F13" s="61"/>
+      <c r="G13" s="61" t="s">
         <v>63</v>
       </c>
       <c r="H13" s="47"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
+      <c r="I13" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="M13" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="2"/>
+      <c r="O13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="56"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1508,30 +1865,48 @@
         <v>44781</v>
       </c>
       <c r="C14" s="54"/>
-      <c r="D14" s="76" t="s">
+      <c r="D14" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="77">
+      <c r="E14" s="62">
         <v>868183038021411</v>
       </c>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76" t="s">
+      <c r="F14" s="61"/>
+      <c r="G14" s="61" t="s">
         <v>63</v>
       </c>
       <c r="H14" s="47"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
+      <c r="I14" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="M14" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="2"/>
+      <c r="O14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="S14" s="3"/>
       <c r="T14" s="56"/>
-      <c r="U14" s="62"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1545,30 +1920,46 @@
         <v>44781</v>
       </c>
       <c r="C15" s="54"/>
-      <c r="D15" s="76" t="s">
+      <c r="D15" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="77">
+      <c r="E15" s="62">
         <v>868183038022195</v>
       </c>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76" t="s">
+      <c r="F15" s="61"/>
+      <c r="G15" s="61" t="s">
         <v>63</v>
       </c>
       <c r="H15" s="47"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="1"/>
+      <c r="I15" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="K15" s="1"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
+      <c r="L15" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="M15" s="39" t="s">
+        <v>91</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="2"/>
+      <c r="O15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P15" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1597,7 +1988,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1715,7 +2106,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -1747,7 +2138,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -1779,7 +2170,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -1928,7 +2319,7 @@
       </c>
       <c r="V27" s="9">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="13"/>
     </row>
@@ -1992,7 +2383,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -2056,7 +2447,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -2088,7 +2479,7 @@
       </c>
       <c r="V32" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W32" s="13"/>
     </row>
@@ -2184,7 +2575,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2248,7 +2639,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -2601,7 +2992,7 @@
       <c r="S48" s="3"/>
       <c r="T48" s="34">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="9" t="s">
         <v>57</v>
@@ -3313,6 +3704,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3324,13 +3722,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3341,8 +3732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3374,43 +3765,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3455,58 +3846,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="64" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -3531,23 +3922,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="68"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3558,30 +3949,46 @@
         <v>44781</v>
       </c>
       <c r="C6" s="54"/>
-      <c r="D6" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="77">
+      <c r="D6" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="62">
         <v>862631039278709</v>
       </c>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76" t="s">
+      <c r="F6" s="61"/>
+      <c r="G6" s="61" t="s">
         <v>63</v>
       </c>
       <c r="H6" s="37"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="55"/>
+      <c r="I6" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="55" t="s">
+        <v>103</v>
+      </c>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="1"/>
+      <c r="M6" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="N6" s="64">
+        <v>385000</v>
+      </c>
       <c r="O6" s="1"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="2"/>
+      <c r="P6" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3612,7 +4019,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="62"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3641,7 +4048,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="62"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3670,7 +4077,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3699,7 +4106,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="62"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3728,7 +4135,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3757,7 +4164,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="61" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3788,7 +4195,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3817,7 +4224,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="62"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3846,7 +4253,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3875,7 +4282,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4025,7 +4432,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -4238,7 +4645,7 @@
       </c>
       <c r="V28" s="9">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="13"/>
     </row>
@@ -4526,7 +4933,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -5591,13 +5998,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5609,6 +6009,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5619,8 +6026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showZeros="0" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5652,43 +6059,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5733,58 +6140,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="64" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -5809,55 +6216,73 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="68"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="76" t="s">
+      <c r="B6" s="65">
+        <v>44781</v>
+      </c>
+      <c r="C6" s="65"/>
+      <c r="D6" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="77">
+      <c r="E6" s="67">
         <v>865209034364811</v>
       </c>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76" t="s">
+      <c r="F6" s="61"/>
+      <c r="G6" s="61" t="s">
         <v>63</v>
       </c>
       <c r="H6" s="37"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="1"/>
+      <c r="I6" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="K6" s="55"/>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="2"/>
+      <c r="M6" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="N6" s="64">
+        <v>275000</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5888,7 +6313,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="62"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5917,7 +6342,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="62"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5946,7 +6371,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5975,7 +6400,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="62"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6004,7 +6429,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6033,7 +6458,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="61" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6064,7 +6489,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6093,7 +6518,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="62"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6122,7 +6547,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6151,7 +6576,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6301,7 +6726,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -6482,7 +6907,7 @@
       </c>
       <c r="V27" s="9">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="13"/>
     </row>
@@ -6802,7 +7227,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -7867,13 +8292,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7885,6 +8303,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7895,8 +8320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7928,43 +8353,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8009,58 +8434,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="64" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -8085,57 +8510,75 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="68"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="54">
+      <c r="B6" s="65">
         <v>44781</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="76" t="s">
+      <c r="C6" s="65"/>
+      <c r="D6" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="78" t="s">
+      <c r="E6" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76" t="s">
+      <c r="F6" s="66"/>
+      <c r="G6" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="2"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="J6" s="85" t="s">
+        <v>129</v>
+      </c>
+      <c r="K6" s="86" t="s">
+        <v>126</v>
+      </c>
+      <c r="L6" s="87" t="s">
+        <v>128</v>
+      </c>
+      <c r="M6" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85" t="s">
+        <v>123</v>
+      </c>
+      <c r="P6" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="R6" s="88" t="s">
+        <v>81</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8166,7 +8609,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="62"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8195,7 +8638,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="62"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8224,7 +8667,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8253,7 +8696,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="62"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8282,7 +8725,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8311,7 +8754,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="61" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8342,7 +8785,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8371,7 +8814,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="62"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8400,7 +8843,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8429,7 +8872,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8611,7 +9054,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -8888,7 +9331,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -9016,7 +9459,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -9080,7 +9523,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -9198,7 +9641,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -10145,13 +10588,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10163,6 +10599,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10173,8 +10616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView showZeros="0" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10206,43 +10649,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10287,58 +10730,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="64" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -10363,23 +10806,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="68"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10390,30 +10833,48 @@
         <v>44781</v>
       </c>
       <c r="C6" s="54"/>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="77">
+      <c r="E6" s="62">
         <v>867330065867679</v>
       </c>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76" t="s">
+      <c r="F6" s="61"/>
+      <c r="G6" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="55"/>
+      <c r="H6" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K6" s="55" t="s">
+        <v>110</v>
+      </c>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>113</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="2"/>
+      <c r="O6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10429,30 +10890,46 @@
         <v>44781</v>
       </c>
       <c r="C7" s="54"/>
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="77">
+      <c r="E7" s="62">
         <v>866593020298284</v>
       </c>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76" t="s">
+      <c r="F7" s="61"/>
+      <c r="G7" s="61" t="s">
         <v>63</v>
       </c>
       <c r="H7" s="37"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="55"/>
+      <c r="I7" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K7" s="55" t="s">
+        <v>110</v>
+      </c>
       <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="M7" s="39" t="s">
+        <v>113</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="62"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10466,30 +10943,42 @@
         <v>44781</v>
       </c>
       <c r="C8" s="54"/>
-      <c r="D8" s="76" t="s">
+      <c r="D8" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="77">
+      <c r="E8" s="62">
         <v>869668021321289</v>
       </c>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76" t="s">
+      <c r="F8" s="61"/>
+      <c r="G8" s="61" t="s">
         <v>63</v>
       </c>
       <c r="H8" s="37"/>
       <c r="I8" s="51"/>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="K8" s="55"/>
       <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="M8" s="39" t="s">
+        <v>122</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
+      <c r="O8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="62"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10503,30 +10992,44 @@
         <v>44781</v>
       </c>
       <c r="C9" s="54"/>
-      <c r="D9" s="76" t="s">
+      <c r="D9" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="77">
+      <c r="E9" s="62">
         <v>867330026961857</v>
       </c>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76" t="s">
+      <c r="F9" s="61"/>
+      <c r="G9" s="61" t="s">
         <v>63</v>
       </c>
       <c r="H9" s="37"/>
       <c r="I9" s="51"/>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="K9" s="1"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="L9" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>109</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="2"/>
+      <c r="O9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10540,30 +11043,48 @@
         <v>44781</v>
       </c>
       <c r="C10" s="54"/>
-      <c r="D10" s="76" t="s">
+      <c r="D10" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="78">
+      <c r="E10" s="63">
         <v>869668023271806</v>
       </c>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76" t="s">
+      <c r="F10" s="61"/>
+      <c r="G10" s="61" t="s">
         <v>63</v>
       </c>
       <c r="H10" s="37"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="I10" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="2"/>
+      <c r="O10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="62"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10577,30 +11098,46 @@
         <v>44781</v>
       </c>
       <c r="C11" s="54"/>
-      <c r="D11" s="76" t="s">
+      <c r="D11" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="77">
+      <c r="E11" s="62">
         <v>866593020491327</v>
       </c>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76" t="s">
+      <c r="F11" s="61"/>
+      <c r="G11" s="61" t="s">
         <v>63</v>
       </c>
       <c r="H11" s="58"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="38"/>
+      <c r="I11" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" s="55" t="s">
+        <v>110</v>
+      </c>
       <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="M11" s="39" t="s">
+        <v>116</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="2"/>
+      <c r="O11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10614,30 +11151,46 @@
         <v>44781</v>
       </c>
       <c r="C12" s="54"/>
-      <c r="D12" s="76" t="s">
+      <c r="D12" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="77">
+      <c r="E12" s="62">
         <v>867330065868120</v>
       </c>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76" t="s">
+      <c r="F12" s="61"/>
+      <c r="G12" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="58"/>
+      <c r="H12" s="58" t="s">
+        <v>108</v>
+      </c>
       <c r="I12" s="51"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
+      <c r="M12" s="39" t="s">
+        <v>109</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="2"/>
+      <c r="O12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="61" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10653,30 +11206,46 @@
         <v>44781</v>
       </c>
       <c r="C13" s="54"/>
-      <c r="D13" s="76" t="s">
+      <c r="D13" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="77">
+      <c r="E13" s="62">
         <v>869668021846138</v>
       </c>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76" t="s">
+      <c r="F13" s="61"/>
+      <c r="G13" s="61" t="s">
         <v>63</v>
       </c>
       <c r="H13" s="47"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="I13" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
+      <c r="M13" s="39" t="s">
+        <v>125</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="2"/>
+      <c r="O13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10705,7 +11274,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="62"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10734,7 +11303,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10763,7 +11332,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10881,7 +11450,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -10913,7 +11482,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -10945,7 +11514,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -11158,7 +11727,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -11254,7 +11823,7 @@
       </c>
       <c r="V32" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W32" s="13"/>
     </row>
@@ -11350,7 +11919,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -11382,7 +11951,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -11414,7 +11983,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -11532,7 +12101,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -12479,13 +13048,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12497,6 +13059,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12540,43 +13109,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -12621,58 +13190,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="69" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="75" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="69" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="69" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -12697,23 +13266,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="68"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12739,7 +13308,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12770,7 +13339,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="62"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12799,7 +13368,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="62"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12828,7 +13397,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12857,7 +13426,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="62"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12886,7 +13455,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12915,7 +13484,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="61" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12946,7 +13515,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12975,7 +13544,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="62"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13004,7 +13573,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13033,7 +13602,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14264,13 +14833,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14282,6 +14844,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_TechGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_TechGlobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TG007X" sheetId="43" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="133">
   <si>
     <t>STT</t>
   </si>
@@ -360,13 +360,7 @@
     <t>quanlyxe.net,08000</t>
   </si>
   <si>
-    <t>Thay module GPS</t>
-  </si>
-  <si>
     <t>Lock: 203.162.121.024,09107</t>
-  </si>
-  <si>
-    <t>Thay module GSM</t>
   </si>
   <si>
     <t>Imei: 868004027123721</t>
@@ -436,6 +430,18 @@
   </si>
   <si>
     <t>Hết linh kiện, không sửa chữa</t>
+  </si>
+  <si>
+    <t>SE.4.00.---06.200630</t>
+  </si>
+  <si>
+    <t>Thay module GPS, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>GPS,NCFW</t>
+  </si>
+  <si>
+    <t>Báo giá không sửa chữa</t>
   </si>
 </sst>
 </file>
@@ -841,6 +847,48 @@
     <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -859,50 +907,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1211,7 +1217,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="M6" sqref="M6:M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1243,43 +1249,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1324,58 +1330,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="82" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1400,23 +1406,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
       <c r="S5" s="81"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1426,7 +1432,9 @@
       <c r="B6" s="54">
         <v>44781</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="54">
+        <v>44788</v>
+      </c>
       <c r="D6" s="61" t="s">
         <v>65</v>
       </c>
@@ -1468,7 +1476,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="56"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1483,7 +1491,9 @@
       <c r="B7" s="54">
         <v>44781</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="54">
+        <v>44788</v>
+      </c>
       <c r="D7" s="61" t="s">
         <v>65</v>
       </c>
@@ -1523,7 +1533,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="56"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1536,7 +1546,9 @@
       <c r="B8" s="54">
         <v>44781</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="54">
+        <v>44788</v>
+      </c>
       <c r="D8" s="61" t="s">
         <v>65</v>
       </c>
@@ -1578,7 +1590,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="56"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1591,7 +1603,9 @@
       <c r="B9" s="54">
         <v>44781</v>
       </c>
-      <c r="C9" s="54"/>
+      <c r="C9" s="54">
+        <v>44788</v>
+      </c>
       <c r="D9" s="61" t="s">
         <v>65</v>
       </c>
@@ -1631,7 +1645,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="56"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1644,7 +1658,9 @@
       <c r="B10" s="54">
         <v>44781</v>
       </c>
-      <c r="C10" s="54"/>
+      <c r="C10" s="54">
+        <v>44788</v>
+      </c>
       <c r="D10" s="61" t="s">
         <v>65</v>
       </c>
@@ -1686,7 +1702,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="56"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1699,7 +1715,9 @@
       <c r="B11" s="54">
         <v>44781</v>
       </c>
-      <c r="C11" s="54"/>
+      <c r="C11" s="54">
+        <v>44788</v>
+      </c>
       <c r="D11" s="61" t="s">
         <v>65</v>
       </c>
@@ -1741,7 +1759,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="56"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1754,7 +1772,9 @@
       <c r="B12" s="54">
         <v>44781</v>
       </c>
-      <c r="C12" s="54"/>
+      <c r="C12" s="54">
+        <v>44788</v>
+      </c>
       <c r="D12" s="61" t="s">
         <v>65</v>
       </c>
@@ -1794,7 +1814,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="56"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1809,7 +1829,9 @@
       <c r="B13" s="54">
         <v>44781</v>
       </c>
-      <c r="C13" s="54"/>
+      <c r="C13" s="54">
+        <v>44788</v>
+      </c>
       <c r="D13" s="61" t="s">
         <v>65</v>
       </c>
@@ -1851,7 +1873,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="56"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1864,7 +1886,9 @@
       <c r="B14" s="54">
         <v>44781</v>
       </c>
-      <c r="C14" s="54"/>
+      <c r="C14" s="54">
+        <v>44788</v>
+      </c>
       <c r="D14" s="61" t="s">
         <v>65</v>
       </c>
@@ -1906,7 +1930,7 @@
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="56"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1919,7 +1943,9 @@
       <c r="B15" s="54">
         <v>44781</v>
       </c>
-      <c r="C15" s="54"/>
+      <c r="C15" s="54">
+        <v>44788</v>
+      </c>
       <c r="D15" s="61" t="s">
         <v>65</v>
       </c>
@@ -1959,7 +1985,7 @@
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1988,7 +2014,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3704,13 +3730,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3722,6 +3741,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3732,8 +3758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView showZeros="0" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3765,43 +3791,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3846,58 +3872,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="82" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -3922,23 +3948,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
       <c r="S5" s="81"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3948,7 +3974,9 @@
       <c r="B6" s="54">
         <v>44781</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="54">
+        <v>44788</v>
+      </c>
       <c r="D6" s="61" t="s">
         <v>102</v>
       </c>
@@ -3969,26 +3997,30 @@
       <c r="K6" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="L6" s="39"/>
+      <c r="L6" s="39" t="s">
+        <v>129</v>
+      </c>
       <c r="M6" s="39" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="N6" s="64">
         <v>385000</v>
       </c>
-      <c r="O6" s="1"/>
+      <c r="O6" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="P6" s="39" t="s">
         <v>76</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -4019,7 +4051,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -4048,7 +4080,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4077,7 +4109,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -4106,7 +4138,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -4135,7 +4167,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -4164,7 +4196,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -4195,7 +4227,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4224,7 +4256,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4253,7 +4285,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4282,7 +4314,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4432,7 +4464,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -4464,7 +4496,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -4869,7 +4901,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -4933,7 +4965,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -5998,6 +6030,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6009,13 +6048,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6026,8 +6058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView showZeros="0" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6059,43 +6091,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -6140,58 +6172,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="82" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -6216,23 +6248,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
       <c r="S5" s="81"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6242,7 +6274,9 @@
       <c r="B6" s="65">
         <v>44781</v>
       </c>
-      <c r="C6" s="65"/>
+      <c r="C6" s="65">
+        <v>44788</v>
+      </c>
       <c r="D6" s="66" t="s">
         <v>66</v>
       </c>
@@ -6255,7 +6289,7 @@
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="51" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>34</v>
@@ -6263,13 +6297,11 @@
       <c r="K6" s="55"/>
       <c r="L6" s="39"/>
       <c r="M6" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="N6" s="64">
-        <v>275000</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N6" s="64"/>
       <c r="O6" s="1" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="P6" s="39" t="s">
         <v>76</v>
@@ -6282,7 +6314,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6313,7 +6345,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6342,7 +6374,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6371,7 +6403,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6400,7 +6432,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6429,7 +6461,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6458,7 +6490,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6489,7 +6521,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6518,7 +6550,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6547,7 +6579,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6576,7 +6608,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7345,7 +7377,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -8292,6 +8324,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8303,13 +8342,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8320,8 +8352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView showZeros="0" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8353,43 +8385,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8434,58 +8466,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="82" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -8510,23 +8542,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
       <c r="S5" s="81"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8536,11 +8568,13 @@
       <c r="B6" s="65">
         <v>44781</v>
       </c>
-      <c r="C6" s="65"/>
+      <c r="C6" s="65">
+        <v>44788</v>
+      </c>
       <c r="D6" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="83" t="s">
+      <c r="E6" s="68" t="s">
         <v>68</v>
       </c>
       <c r="F6" s="66"/>
@@ -8548,37 +8582,37 @@
         <v>63</v>
       </c>
       <c r="H6" s="66"/>
-      <c r="I6" s="84" t="s">
+      <c r="I6" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="J6" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="J6" s="85" t="s">
-        <v>129</v>
-      </c>
-      <c r="K6" s="86" t="s">
+      <c r="K6" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="L6" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="L6" s="87" t="s">
+      <c r="M6" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="M6" s="87" t="s">
-        <v>130</v>
-      </c>
-      <c r="N6" s="85"/>
-      <c r="O6" s="85" t="s">
-        <v>123</v>
-      </c>
-      <c r="P6" s="87" t="s">
+      <c r="N6" s="70"/>
+      <c r="O6" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="P6" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="Q6" s="85" t="s">
+      <c r="Q6" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="R6" s="88" t="s">
+      <c r="R6" s="73" t="s">
         <v>81</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8609,7 +8643,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8638,7 +8672,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8667,7 +8701,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8696,7 +8730,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8725,7 +8759,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8754,7 +8788,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8785,7 +8819,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8814,7 +8848,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8843,7 +8877,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8872,7 +8906,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10588,6 +10622,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10599,13 +10640,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10616,8 +10650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10649,43 +10683,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10730,58 +10764,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="82" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -10806,23 +10840,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
       <c r="S5" s="81"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10832,7 +10866,9 @@
       <c r="B6" s="54">
         <v>44781</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="54">
+        <v>44788</v>
+      </c>
       <c r="D6" s="61" t="s">
         <v>69</v>
       </c>
@@ -10844,20 +10880,20 @@
         <v>63</v>
       </c>
       <c r="H6" s="37" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I6" s="51" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K6" s="55" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L6" s="39"/>
       <c r="M6" s="39" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
@@ -10874,7 +10910,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10889,7 +10925,9 @@
       <c r="B7" s="54">
         <v>44781</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="54">
+        <v>44788</v>
+      </c>
       <c r="D7" s="61" t="s">
         <v>69</v>
       </c>
@@ -10902,17 +10940,17 @@
       </c>
       <c r="H7" s="37"/>
       <c r="I7" s="51" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K7" s="55" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L7" s="39"/>
       <c r="M7" s="39" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
@@ -10929,7 +10967,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10942,7 +10980,9 @@
       <c r="B8" s="54">
         <v>44781</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="54">
+        <v>44788</v>
+      </c>
       <c r="D8" s="61" t="s">
         <v>69</v>
       </c>
@@ -10956,16 +10996,16 @@
       <c r="H8" s="37"/>
       <c r="I8" s="51"/>
       <c r="J8" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K8" s="55"/>
       <c r="L8" s="39"/>
       <c r="M8" s="39" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P8" s="39" t="s">
         <v>76</v>
@@ -10978,7 +11018,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10991,7 +11031,9 @@
       <c r="B9" s="54">
         <v>44781</v>
       </c>
-      <c r="C9" s="54"/>
+      <c r="C9" s="54">
+        <v>44788</v>
+      </c>
       <c r="D9" s="61" t="s">
         <v>69</v>
       </c>
@@ -11005,14 +11047,14 @@
       <c r="H9" s="37"/>
       <c r="I9" s="51"/>
       <c r="J9" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="39" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M9" s="39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
@@ -11029,7 +11071,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -11042,7 +11084,9 @@
       <c r="B10" s="54">
         <v>44781</v>
       </c>
-      <c r="C10" s="54"/>
+      <c r="C10" s="54">
+        <v>44788</v>
+      </c>
       <c r="D10" s="61" t="s">
         <v>69</v>
       </c>
@@ -11055,19 +11099,19 @@
       </c>
       <c r="H10" s="37"/>
       <c r="I10" s="51" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>83</v>
       </c>
       <c r="K10" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" s="39" t="s">
         <v>118</v>
-      </c>
-      <c r="L10" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="M10" s="39" t="s">
-        <v>120</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
@@ -11084,7 +11128,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11097,7 +11141,9 @@
       <c r="B11" s="54">
         <v>44781</v>
       </c>
-      <c r="C11" s="54"/>
+      <c r="C11" s="54">
+        <v>44788</v>
+      </c>
       <c r="D11" s="61" t="s">
         <v>69</v>
       </c>
@@ -11110,17 +11156,17 @@
       </c>
       <c r="H11" s="58"/>
       <c r="I11" s="51" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K11" s="55" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L11" s="39"/>
       <c r="M11" s="39" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
@@ -11137,7 +11183,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11150,7 +11196,9 @@
       <c r="B12" s="54">
         <v>44781</v>
       </c>
-      <c r="C12" s="54"/>
+      <c r="C12" s="54">
+        <v>44788</v>
+      </c>
       <c r="D12" s="61" t="s">
         <v>69</v>
       </c>
@@ -11162,18 +11210,18 @@
         <v>63</v>
       </c>
       <c r="H12" s="58" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I12" s="51"/>
       <c r="J12" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L12" s="39"/>
       <c r="M12" s="39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
@@ -11190,7 +11238,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11205,7 +11253,9 @@
       <c r="B13" s="54">
         <v>44781</v>
       </c>
-      <c r="C13" s="54"/>
+      <c r="C13" s="54">
+        <v>44788</v>
+      </c>
       <c r="D13" s="61" t="s">
         <v>69</v>
       </c>
@@ -11218,17 +11268,17 @@
       </c>
       <c r="H13" s="47"/>
       <c r="I13" s="51" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>83</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L13" s="39"/>
       <c r="M13" s="39" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
@@ -11245,7 +11295,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11274,7 +11324,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11303,7 +11353,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11332,7 +11382,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13048,6 +13098,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -13059,13 +13116,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13109,43 +13159,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -13190,58 +13240,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
       <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="82" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -13266,23 +13316,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
       <c r="S5" s="81"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13308,7 +13358,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -13339,7 +13389,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -13368,7 +13418,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13397,7 +13447,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13426,7 +13476,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13455,7 +13505,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13484,7 +13534,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13515,7 +13565,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13544,7 +13594,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13573,7 +13623,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13602,7 +13652,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14833,6 +14883,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14844,13 +14901,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_TechGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_TechGlobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="4"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG007X" sheetId="43" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="133">
   <si>
     <t>STT</t>
   </si>
@@ -644,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -826,18 +826,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -865,30 +853,6 @@
     <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -907,8 +871,47 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1216,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:M15"/>
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1249,43 +1252,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="86"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1330,58 +1333,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1406,77 +1409,77 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="54">
+      <c r="B6" s="61">
         <v>44781</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="61">
         <v>44788</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="62">
+      <c r="E6" s="63">
         <v>868183034678489</v>
       </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61" t="s">
+      <c r="F6" s="62"/>
+      <c r="G6" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="51" t="s">
+      <c r="H6" s="62"/>
+      <c r="I6" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="K6" s="55" t="s">
+      <c r="K6" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="L6" s="39" t="s">
+      <c r="L6" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="M6" s="39" t="s">
+      <c r="M6" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1" t="s">
+      <c r="N6" s="66"/>
+      <c r="O6" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="P6" s="39" t="s">
+      <c r="P6" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="R6" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="S6" s="3"/>
+      <c r="S6" s="88"/>
       <c r="T6" s="56"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1488,52 +1491,52 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="54">
+      <c r="B7" s="61">
         <v>44781</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="61">
         <v>44788</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="62">
+      <c r="E7" s="63">
         <v>860157040235514</v>
       </c>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61" t="s">
+      <c r="F7" s="62"/>
+      <c r="G7" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="51" t="s">
+      <c r="H7" s="62"/>
+      <c r="I7" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="K7" s="55"/>
-      <c r="L7" s="39" t="s">
+      <c r="K7" s="67"/>
+      <c r="L7" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="M7" s="39" t="s">
+      <c r="M7" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1" t="s">
+      <c r="N7" s="66"/>
+      <c r="O7" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="P7" s="39" t="s">
+      <c r="P7" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="R7" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="S7" s="3"/>
+      <c r="S7" s="88"/>
       <c r="T7" s="56"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1543,54 +1546,54 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="54">
+      <c r="B8" s="61">
         <v>44781</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="61">
         <v>44788</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="62">
+      <c r="E8" s="63">
         <v>868183034748389</v>
       </c>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61" t="s">
+      <c r="F8" s="62"/>
+      <c r="G8" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="37"/>
-      <c r="I8" s="51" t="s">
+      <c r="H8" s="62"/>
+      <c r="I8" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="K8" s="55" t="s">
+      <c r="K8" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="L8" s="39" t="s">
+      <c r="L8" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="M8" s="39" t="s">
+      <c r="M8" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1" t="s">
+      <c r="N8" s="66"/>
+      <c r="O8" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="P8" s="39" t="s">
+      <c r="P8" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q8" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="R8" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="S8" s="3"/>
+      <c r="S8" s="88"/>
       <c r="T8" s="56"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1600,52 +1603,52 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="54">
+      <c r="B9" s="61">
         <v>44781</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="61">
         <v>44788</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="62">
+      <c r="E9" s="63">
         <v>868183034665716</v>
       </c>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61" t="s">
+      <c r="F9" s="62"/>
+      <c r="G9" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="37"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="1" t="s">
+      <c r="H9" s="62"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="L9" s="39" t="s">
+      <c r="L9" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="M9" s="39" t="s">
+      <c r="M9" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1" t="s">
+      <c r="N9" s="66"/>
+      <c r="O9" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="P9" s="39" t="s">
+      <c r="P9" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="Q9" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="R9" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="S9" s="3"/>
+      <c r="S9" s="88"/>
       <c r="T9" s="56"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1655,54 +1658,54 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="54">
+      <c r="B10" s="61">
         <v>44781</v>
       </c>
-      <c r="C10" s="54">
+      <c r="C10" s="61">
         <v>44788</v>
       </c>
-      <c r="D10" s="61" t="s">
+      <c r="D10" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="62">
+      <c r="E10" s="63">
         <v>868183034546064</v>
       </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61" t="s">
+      <c r="F10" s="62"/>
+      <c r="G10" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="51" t="s">
+      <c r="H10" s="62"/>
+      <c r="I10" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="K10" s="38" t="s">
+      <c r="K10" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="L10" s="39" t="s">
+      <c r="L10" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="M10" s="39" t="s">
+      <c r="M10" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1" t="s">
+      <c r="N10" s="66"/>
+      <c r="O10" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="P10" s="39" t="s">
+      <c r="P10" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="Q10" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="R10" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="S10" s="3"/>
+      <c r="S10" s="88"/>
       <c r="T10" s="56"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1712,54 +1715,54 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="54">
+      <c r="B11" s="61">
         <v>44781</v>
       </c>
-      <c r="C11" s="54">
+      <c r="C11" s="61">
         <v>44788</v>
       </c>
-      <c r="D11" s="61" t="s">
+      <c r="D11" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="62">
+      <c r="E11" s="63">
         <v>868183034537212</v>
       </c>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61" t="s">
+      <c r="F11" s="62"/>
+      <c r="G11" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="58"/>
-      <c r="I11" s="51" t="s">
+      <c r="H11" s="85"/>
+      <c r="I11" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="55" t="s">
+      <c r="K11" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="L11" s="39" t="s">
+      <c r="L11" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="M11" s="39" t="s">
+      <c r="M11" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1" t="s">
+      <c r="N11" s="66"/>
+      <c r="O11" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="P11" s="39" t="s">
+      <c r="P11" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="Q11" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="R11" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="S11" s="3"/>
+      <c r="S11" s="88"/>
       <c r="T11" s="56"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1769,52 +1772,52 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="54">
+      <c r="B12" s="61">
         <v>44781</v>
       </c>
-      <c r="C12" s="54">
+      <c r="C12" s="61">
         <v>44788</v>
       </c>
-      <c r="D12" s="61" t="s">
+      <c r="D12" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="62">
+      <c r="E12" s="63">
         <v>868183034631619</v>
       </c>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61" t="s">
+      <c r="F12" s="62"/>
+      <c r="G12" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="58"/>
-      <c r="I12" s="51" t="s">
+      <c r="H12" s="85"/>
+      <c r="I12" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1" t="s">
+      <c r="J12" s="66"/>
+      <c r="K12" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="L12" s="39" t="s">
+      <c r="L12" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="M12" s="39" t="s">
+      <c r="M12" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1" t="s">
+      <c r="N12" s="66"/>
+      <c r="O12" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="P12" s="39" t="s">
+      <c r="P12" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="Q12" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="R12" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="S12" s="3"/>
+      <c r="S12" s="88"/>
       <c r="T12" s="56"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1826,54 +1829,54 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="54">
+      <c r="B13" s="61">
         <v>44781</v>
       </c>
-      <c r="C13" s="54">
+      <c r="C13" s="61">
         <v>44788</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="D13" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="62">
+      <c r="E13" s="63">
         <v>867857039897942</v>
       </c>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61" t="s">
+      <c r="F13" s="62"/>
+      <c r="G13" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="51" t="s">
+      <c r="H13" s="86"/>
+      <c r="I13" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="L13" s="39" t="s">
+      <c r="L13" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="M13" s="39" t="s">
+      <c r="M13" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1" t="s">
+      <c r="N13" s="66"/>
+      <c r="O13" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="39" t="s">
+      <c r="P13" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="Q13" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="R13" s="2" t="s">
+      <c r="R13" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="S13" s="3"/>
+      <c r="S13" s="88"/>
       <c r="T13" s="56"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1883,54 +1886,54 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="54">
+      <c r="B14" s="61">
         <v>44781</v>
       </c>
-      <c r="C14" s="54">
+      <c r="C14" s="61">
         <v>44788</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="D14" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="62">
+      <c r="E14" s="63">
         <v>868183038021411</v>
       </c>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61" t="s">
+      <c r="F14" s="62"/>
+      <c r="G14" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="47"/>
-      <c r="I14" s="51" t="s">
+      <c r="H14" s="86"/>
+      <c r="I14" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="L14" s="39" t="s">
+      <c r="L14" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="M14" s="39" t="s">
+      <c r="M14" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1" t="s">
+      <c r="N14" s="66"/>
+      <c r="O14" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="P14" s="39" t="s">
+      <c r="P14" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="Q14" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="R14" s="2" t="s">
+      <c r="R14" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="S14" s="3"/>
+      <c r="S14" s="88"/>
       <c r="T14" s="56"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1940,52 +1943,52 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="54">
+      <c r="B15" s="61">
         <v>44781</v>
       </c>
-      <c r="C15" s="54">
+      <c r="C15" s="61">
         <v>44788</v>
       </c>
-      <c r="D15" s="61" t="s">
+      <c r="D15" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="62">
+      <c r="E15" s="63">
         <v>868183038022195</v>
       </c>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61" t="s">
+      <c r="F15" s="62"/>
+      <c r="G15" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="47"/>
-      <c r="I15" s="51" t="s">
+      <c r="H15" s="86"/>
+      <c r="I15" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="39" t="s">
+      <c r="K15" s="66"/>
+      <c r="L15" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="M15" s="39" t="s">
+      <c r="M15" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1" t="s">
+      <c r="N15" s="66"/>
+      <c r="O15" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="P15" s="39" t="s">
+      <c r="P15" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="Q15" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="R15" s="2" t="s">
+      <c r="R15" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="S15" s="3"/>
+      <c r="S15" s="88"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1995,26 +1998,34 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="3"/>
+      <c r="B16" s="61">
+        <v>44797</v>
+      </c>
+      <c r="C16" s="61"/>
+      <c r="D16" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="63">
+        <v>868183037770829</v>
+      </c>
+      <c r="F16" s="62"/>
+      <c r="G16" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="62"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="69"/>
+      <c r="S16" s="88"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2024,23 +2035,32 @@
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="3"/>
+      <c r="B17" s="61">
+        <v>44798</v>
+      </c>
+      <c r="C17" s="61"/>
+      <c r="D17" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="63">
+        <v>868183038041773</v>
+      </c>
+      <c r="F17" s="62"/>
+      <c r="G17" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="66"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="88"/>
       <c r="T17" s="13"/>
       <c r="U17" s="56"/>
       <c r="V17" s="14"/>
@@ -2050,24 +2070,32 @@
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="3"/>
+      <c r="B18" s="61">
+        <v>44799</v>
+      </c>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="63">
+        <v>868183034550173</v>
+      </c>
+      <c r="F18" s="62"/>
+      <c r="G18" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="66"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="88"/>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
       <c r="V18" s="15"/>
@@ -2077,24 +2105,32 @@
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="3"/>
+      <c r="B19" s="61">
+        <v>44800</v>
+      </c>
+      <c r="C19" s="61"/>
+      <c r="D19" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="63">
+        <v>868183038028259</v>
+      </c>
+      <c r="F19" s="62"/>
+      <c r="G19" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="66"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="69"/>
+      <c r="S19" s="88"/>
       <c r="T19" s="13"/>
       <c r="U19" s="57" t="s">
         <v>39</v>
@@ -2108,23 +2144,23 @@
       <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="2"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="69"/>
       <c r="S20" s="3"/>
       <c r="T20" s="13"/>
       <c r="U20" s="9" t="s">
@@ -3730,6 +3766,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3741,13 +3784,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3758,8 +3794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:N6"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3791,43 +3827,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="86"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3872,58 +3908,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -3948,79 +3984,79 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="54">
+      <c r="B6" s="61">
         <v>44781</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="61">
         <v>44788</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="E6" s="62">
+      <c r="E6" s="63">
         <v>862631039278709</v>
       </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61" t="s">
+      <c r="F6" s="62"/>
+      <c r="G6" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="51" t="s">
+      <c r="H6" s="62"/>
+      <c r="I6" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="55" t="s">
+      <c r="K6" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="L6" s="39" t="s">
+      <c r="L6" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="M6" s="39" t="s">
+      <c r="M6" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="N6" s="64">
+      <c r="N6" s="89">
         <v>385000</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="P6" s="39" t="s">
+      <c r="P6" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="R6" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="S6" s="3"/>
+      <c r="S6" s="88"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -4032,26 +4068,34 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="3"/>
+      <c r="B7" s="61">
+        <v>44797</v>
+      </c>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="63">
+        <v>866104022203114</v>
+      </c>
+      <c r="F7" s="62"/>
+      <c r="G7" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="62"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="88"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -4061,26 +4105,26 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="3"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="88"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4109,7 +4153,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -4138,7 +4182,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -4167,7 +4211,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -4196,7 +4240,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -4227,7 +4271,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4256,7 +4300,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4285,7 +4329,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4314,7 +4358,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6030,13 +6074,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6048,6 +6085,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6058,8 +6102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6091,43 +6135,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="86"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -6172,58 +6216,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -6248,73 +6292,73 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="65">
+      <c r="B6" s="61">
         <v>44781</v>
       </c>
-      <c r="C6" s="65">
+      <c r="C6" s="61">
         <v>44788</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="67">
+      <c r="E6" s="63">
         <v>865209034364811</v>
       </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61" t="s">
+      <c r="F6" s="62"/>
+      <c r="G6" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="51" t="s">
+      <c r="H6" s="62"/>
+      <c r="I6" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="55"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39" t="s">
+      <c r="K6" s="67"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="N6" s="64"/>
-      <c r="O6" s="1" t="s">
+      <c r="N6" s="89"/>
+      <c r="O6" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="P6" s="39" t="s">
+      <c r="P6" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="R6" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="S6" s="3"/>
+      <c r="S6" s="88"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6326,26 +6370,34 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="3"/>
+      <c r="B7" s="61">
+        <v>44797</v>
+      </c>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="63">
+        <v>863586032748083</v>
+      </c>
+      <c r="F7" s="62"/>
+      <c r="G7" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="62"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="88"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6355,26 +6407,34 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="3"/>
+      <c r="B8" s="61">
+        <v>44797</v>
+      </c>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="63">
+        <v>863586032941894</v>
+      </c>
+      <c r="F8" s="62"/>
+      <c r="G8" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="62"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="88"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6384,26 +6444,26 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="3"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="88"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6413,26 +6473,26 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="3"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="88"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6442,26 +6502,26 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="3"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="88"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6490,7 +6550,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6521,7 +6581,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6550,7 +6610,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6579,7 +6639,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6608,7 +6668,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8324,13 +8384,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8342,6 +8395,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8385,43 +8445,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="86"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8466,58 +8526,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -8542,77 +8602,77 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="65">
+      <c r="B6" s="61">
         <v>44781</v>
       </c>
-      <c r="C6" s="65">
+      <c r="C6" s="61">
         <v>44788</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="68" t="s">
+      <c r="E6" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66" t="s">
+      <c r="F6" s="62"/>
+      <c r="G6" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="66"/>
-      <c r="I6" s="69" t="s">
+      <c r="H6" s="62"/>
+      <c r="I6" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="J6" s="70" t="s">
+      <c r="J6" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="K6" s="71" t="s">
+      <c r="K6" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="L6" s="72" t="s">
+      <c r="L6" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="M6" s="72" t="s">
+      <c r="M6" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70" t="s">
+      <c r="N6" s="66"/>
+      <c r="O6" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="P6" s="72" t="s">
+      <c r="P6" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="Q6" s="70" t="s">
+      <c r="Q6" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="R6" s="73" t="s">
+      <c r="R6" s="69" t="s">
         <v>81</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8643,7 +8703,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8672,7 +8732,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8701,7 +8761,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8730,7 +8790,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8759,7 +8819,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8788,7 +8848,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8819,7 +8879,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8848,7 +8908,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8877,7 +8937,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8906,7 +8966,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10622,13 +10682,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10640,6 +10693,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10650,8 +10710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10683,43 +10743,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="86"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10764,58 +10824,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -10840,77 +10900,77 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="54">
+      <c r="B6" s="61">
         <v>44781</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="61">
         <v>44788</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="62">
+      <c r="E6" s="63">
         <v>867330065867679</v>
       </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61" t="s">
+      <c r="F6" s="62"/>
+      <c r="G6" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="K6" s="55" t="s">
+      <c r="K6" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39" t="s">
+      <c r="L6" s="68"/>
+      <c r="M6" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1" t="s">
+      <c r="N6" s="66"/>
+      <c r="O6" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="P6" s="39" t="s">
+      <c r="P6" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="R6" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="S6" s="3"/>
+      <c r="S6" s="88"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10922,52 +10982,52 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="54">
+      <c r="B7" s="61">
         <v>44781</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="61">
         <v>44788</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="62">
+      <c r="E7" s="63">
         <v>866593020298284</v>
       </c>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61" t="s">
+      <c r="F7" s="62"/>
+      <c r="G7" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="51" t="s">
+      <c r="H7" s="62"/>
+      <c r="I7" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="K7" s="55" t="s">
+      <c r="K7" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39" t="s">
+      <c r="L7" s="68"/>
+      <c r="M7" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1" t="s">
+      <c r="N7" s="66"/>
+      <c r="O7" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="P7" s="39" t="s">
+      <c r="P7" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="R7" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="S7" s="3"/>
+      <c r="S7" s="88"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10977,48 +11037,48 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="54">
+      <c r="B8" s="61">
         <v>44781</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="61">
         <v>44788</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="62">
+      <c r="E8" s="63">
         <v>869668021321289</v>
       </c>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61" t="s">
+      <c r="F8" s="62"/>
+      <c r="G8" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="37"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="1" t="s">
+      <c r="H8" s="62"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="K8" s="55"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39" t="s">
+      <c r="K8" s="67"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1" t="s">
+      <c r="N8" s="66"/>
+      <c r="O8" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="P8" s="39" t="s">
+      <c r="P8" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q8" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="R8" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="S8" s="3"/>
+      <c r="S8" s="88"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -11028,50 +11088,50 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="54">
+      <c r="B9" s="61">
         <v>44781</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="61">
         <v>44788</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="62">
+      <c r="E9" s="63">
         <v>867330026961857</v>
       </c>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61" t="s">
+      <c r="F9" s="62"/>
+      <c r="G9" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="37"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="1" t="s">
+      <c r="H9" s="62"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="39" t="s">
+      <c r="K9" s="66"/>
+      <c r="L9" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="M9" s="39" t="s">
+      <c r="M9" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1" t="s">
+      <c r="N9" s="66"/>
+      <c r="O9" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="P9" s="39" t="s">
+      <c r="P9" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="Q9" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="R9" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="S9" s="3"/>
+      <c r="S9" s="88"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -11081,54 +11141,54 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="54">
+      <c r="B10" s="61">
         <v>44781</v>
       </c>
-      <c r="C10" s="54">
+      <c r="C10" s="61">
         <v>44788</v>
       </c>
-      <c r="D10" s="61" t="s">
+      <c r="D10" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="63">
+      <c r="E10" s="64">
         <v>869668023271806</v>
       </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61" t="s">
+      <c r="F10" s="62"/>
+      <c r="G10" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="51" t="s">
+      <c r="H10" s="62"/>
+      <c r="I10" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="K10" s="38" t="s">
+      <c r="K10" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="L10" s="55" t="s">
+      <c r="L10" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="M10" s="39" t="s">
+      <c r="M10" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1" t="s">
+      <c r="N10" s="66"/>
+      <c r="O10" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="P10" s="39" t="s">
+      <c r="P10" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="Q10" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="R10" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="S10" s="3"/>
+      <c r="S10" s="88"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11138,52 +11198,52 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="54">
+      <c r="B11" s="61">
         <v>44781</v>
       </c>
-      <c r="C11" s="54">
+      <c r="C11" s="61">
         <v>44788</v>
       </c>
-      <c r="D11" s="61" t="s">
+      <c r="D11" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="62">
+      <c r="E11" s="63">
         <v>866593020491327</v>
       </c>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61" t="s">
+      <c r="F11" s="62"/>
+      <c r="G11" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="58"/>
-      <c r="I11" s="51" t="s">
+      <c r="H11" s="85"/>
+      <c r="I11" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="K11" s="55" t="s">
+      <c r="K11" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39" t="s">
+      <c r="L11" s="68"/>
+      <c r="M11" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1" t="s">
+      <c r="N11" s="66"/>
+      <c r="O11" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="P11" s="39" t="s">
+      <c r="P11" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="Q11" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="R11" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="S11" s="3"/>
+      <c r="S11" s="88"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11193,52 +11253,52 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="54">
+      <c r="B12" s="61">
         <v>44781</v>
       </c>
-      <c r="C12" s="54">
+      <c r="C12" s="61">
         <v>44788</v>
       </c>
-      <c r="D12" s="61" t="s">
+      <c r="D12" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="62">
+      <c r="E12" s="63">
         <v>867330065868120</v>
       </c>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61" t="s">
+      <c r="F12" s="62"/>
+      <c r="G12" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="58" t="s">
+      <c r="H12" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="I12" s="51"/>
-      <c r="J12" s="1" t="s">
+      <c r="I12" s="65"/>
+      <c r="J12" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39" t="s">
+      <c r="L12" s="68"/>
+      <c r="M12" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1" t="s">
+      <c r="N12" s="66"/>
+      <c r="O12" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="P12" s="39" t="s">
+      <c r="P12" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="Q12" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="R12" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="S12" s="3"/>
+      <c r="S12" s="88"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11250,52 +11310,52 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="54">
+      <c r="B13" s="61">
         <v>44781</v>
       </c>
-      <c r="C13" s="54">
+      <c r="C13" s="61">
         <v>44788</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="D13" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="62">
+      <c r="E13" s="63">
         <v>869668021846138</v>
       </c>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61" t="s">
+      <c r="F13" s="62"/>
+      <c r="G13" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="51" t="s">
+      <c r="H13" s="86"/>
+      <c r="I13" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39" t="s">
+      <c r="L13" s="68"/>
+      <c r="M13" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1" t="s">
+      <c r="N13" s="66"/>
+      <c r="O13" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="39" t="s">
+      <c r="P13" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="Q13" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="R13" s="2" t="s">
+      <c r="R13" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="S13" s="3"/>
+      <c r="S13" s="88"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11305,26 +11365,34 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="3"/>
+      <c r="B14" s="61">
+        <v>44797</v>
+      </c>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="63">
+        <v>868004026310865</v>
+      </c>
+      <c r="F14" s="62"/>
+      <c r="G14" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="86"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="69"/>
+      <c r="S14" s="88"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11334,26 +11402,34 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="3"/>
+      <c r="B15" s="61">
+        <v>44797</v>
+      </c>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="63">
+        <v>861693035609510</v>
+      </c>
+      <c r="F15" s="62"/>
+      <c r="G15" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="86"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="69"/>
+      <c r="S15" s="88"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11363,26 +11439,34 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="3"/>
+      <c r="B16" s="61">
+        <v>44797</v>
+      </c>
+      <c r="C16" s="61"/>
+      <c r="D16" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="63">
+        <v>866593020524069</v>
+      </c>
+      <c r="F16" s="62"/>
+      <c r="G16" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="62"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="69"/>
+      <c r="S16" s="88"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -11392,23 +11476,32 @@
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="3"/>
+      <c r="B17" s="61">
+        <v>44797</v>
+      </c>
+      <c r="C17" s="61"/>
+      <c r="D17" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="63">
+        <v>869668021815901</v>
+      </c>
+      <c r="F17" s="62"/>
+      <c r="G17" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="66"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="88"/>
       <c r="T17" s="13"/>
       <c r="U17" s="59"/>
       <c r="V17" s="14"/>
@@ -11418,24 +11511,32 @@
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="3"/>
+      <c r="B18" s="61">
+        <v>44797</v>
+      </c>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="63">
+        <v>868004027154148</v>
+      </c>
+      <c r="F18" s="62"/>
+      <c r="G18" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="66"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="88"/>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
       <c r="V18" s="15"/>
@@ -11445,24 +11546,24 @@
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="3"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="69"/>
+      <c r="S19" s="88"/>
       <c r="T19" s="13"/>
       <c r="U19" s="60" t="s">
         <v>39</v>
@@ -11476,24 +11577,24 @@
       <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="3"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="69"/>
+      <c r="S20" s="88"/>
       <c r="T20" s="13"/>
       <c r="U20" s="9" t="s">
         <v>17</v>
@@ -13098,13 +13199,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -13116,6 +13210,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13159,43 +13260,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="86"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -13240,58 +13341,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="88" t="s">
+      <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -13316,23 +13417,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13358,7 +13459,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -13389,7 +13490,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -13418,7 +13519,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13447,7 +13548,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13476,7 +13577,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13505,7 +13606,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13534,7 +13635,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13565,7 +13666,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13594,7 +13695,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13623,7 +13724,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13652,7 +13753,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14883,13 +14984,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14901,6 +14995,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_TechGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_TechGlobal.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNETGPS\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang8\2.XulyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang8\2.XulyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="TG007X" sheetId="43" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="141">
   <si>
     <t>STT</t>
   </si>
@@ -443,6 +443,30 @@
   <si>
     <t>Báo giá không sửa chữa</t>
   </si>
+  <si>
+    <t>LE.1.00.---06.191010</t>
+  </si>
+  <si>
+    <t>Lock: 123.031.030.077,09207</t>
+  </si>
+  <si>
+    <t>Nguồn thiết bị chập chờn</t>
+  </si>
+  <si>
+    <t>Xử lý lại connector nguồn, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>123.031.043.235,09207</t>
+  </si>
+  <si>
+    <t>Thiết bị treo</t>
+  </si>
+  <si>
+    <t>Nạp lại FW</t>
+  </si>
+  <si>
+    <t>Lock: 123.31.30.101,09207</t>
+  </si>
 </sst>
 </file>
 
@@ -644,7 +668,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -853,6 +877,48 @@
     <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -871,47 +937,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1219,8 +1246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S19"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1252,43 +1279,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1333,58 +1360,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
       <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1409,23 +1436,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
       <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1477,9 +1504,9 @@
       <c r="R6" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="S6" s="88"/>
+      <c r="S6" s="73"/>
       <c r="T6" s="56"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1534,9 +1561,9 @@
       <c r="R7" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="S7" s="88"/>
+      <c r="S7" s="73"/>
       <c r="T7" s="56"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1591,9 +1618,9 @@
       <c r="R8" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="S8" s="88"/>
+      <c r="S8" s="73"/>
       <c r="T8" s="56"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1646,9 +1673,9 @@
       <c r="R9" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="S9" s="88"/>
+      <c r="S9" s="73"/>
       <c r="T9" s="56"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1703,9 +1730,9 @@
       <c r="R10" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="S10" s="88"/>
+      <c r="S10" s="73"/>
       <c r="T10" s="56"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1731,7 +1758,7 @@
       <c r="G11" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="85"/>
+      <c r="H11" s="70"/>
       <c r="I11" s="65" t="s">
         <v>77</v>
       </c>
@@ -1760,9 +1787,9 @@
       <c r="R11" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="S11" s="88"/>
+      <c r="S11" s="73"/>
       <c r="T11" s="56"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1788,7 +1815,7 @@
       <c r="G12" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="85"/>
+      <c r="H12" s="70"/>
       <c r="I12" s="65" t="s">
         <v>99</v>
       </c>
@@ -1815,9 +1842,9 @@
       <c r="R12" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="S12" s="88"/>
+      <c r="S12" s="73"/>
       <c r="T12" s="56"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1845,7 +1872,7 @@
       <c r="G13" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="86"/>
+      <c r="H13" s="71"/>
       <c r="I13" s="65" t="s">
         <v>88</v>
       </c>
@@ -1874,9 +1901,9 @@
       <c r="R13" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="S13" s="88"/>
+      <c r="S13" s="73"/>
       <c r="T13" s="56"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1902,7 +1929,7 @@
       <c r="G14" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="86"/>
+      <c r="H14" s="71"/>
       <c r="I14" s="65" t="s">
         <v>82</v>
       </c>
@@ -1931,9 +1958,9 @@
       <c r="R14" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="S14" s="88"/>
+      <c r="S14" s="73"/>
       <c r="T14" s="56"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1959,7 +1986,7 @@
       <c r="G15" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="86"/>
+      <c r="H15" s="71"/>
       <c r="I15" s="65" t="s">
         <v>89</v>
       </c>
@@ -1986,9 +2013,9 @@
       <c r="R15" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="S15" s="88"/>
+      <c r="S15" s="73"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -2013,19 +2040,23 @@
         <v>63</v>
       </c>
       <c r="H16" s="62"/>
-      <c r="I16" s="65"/>
+      <c r="I16" s="65" t="s">
+        <v>96</v>
+      </c>
       <c r="J16" s="66"/>
       <c r="K16" s="66"/>
-      <c r="L16" s="68"/>
+      <c r="L16" s="68" t="s">
+        <v>86</v>
+      </c>
       <c r="M16" s="68"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
       <c r="P16" s="68"/>
       <c r="Q16" s="66"/>
       <c r="R16" s="69"/>
-      <c r="S16" s="88"/>
+      <c r="S16" s="73"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2050,17 +2081,35 @@
         <v>63</v>
       </c>
       <c r="H17" s="66"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
+      <c r="I17" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="J17" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="K17" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="L17" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="M17" s="68" t="s">
+        <v>136</v>
+      </c>
       <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="69"/>
-      <c r="S17" s="88"/>
+      <c r="O17" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="P17" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q17" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="R17" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="S17" s="73"/>
       <c r="T17" s="13"/>
       <c r="U17" s="56"/>
       <c r="V17" s="14"/>
@@ -2085,17 +2134,33 @@
         <v>63</v>
       </c>
       <c r="H18" s="66"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="66"/>
+      <c r="I18" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="J18" s="66" t="s">
+        <v>138</v>
+      </c>
       <c r="K18" s="66"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="68"/>
+      <c r="L18" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="M18" s="68" t="s">
+        <v>139</v>
+      </c>
       <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="69"/>
-      <c r="S18" s="88"/>
+      <c r="O18" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="P18" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q18" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="S18" s="73"/>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
       <c r="V18" s="15"/>
@@ -2120,9 +2185,13 @@
         <v>63</v>
       </c>
       <c r="H19" s="66"/>
-      <c r="I19" s="65"/>
+      <c r="I19" s="65" t="s">
+        <v>140</v>
+      </c>
       <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
+      <c r="K19" s="66" t="s">
+        <v>72</v>
+      </c>
       <c r="L19" s="68"/>
       <c r="M19" s="68"/>
       <c r="N19" s="66"/>
@@ -2130,7 +2199,7 @@
       <c r="P19" s="68"/>
       <c r="Q19" s="66"/>
       <c r="R19" s="69"/>
-      <c r="S19" s="88"/>
+      <c r="S19" s="73"/>
       <c r="T19" s="13"/>
       <c r="U19" s="57" t="s">
         <v>39</v>
@@ -2148,7 +2217,7 @@
       <c r="C20" s="61"/>
       <c r="D20" s="62"/>
       <c r="E20" s="63"/>
-      <c r="F20" s="86"/>
+      <c r="F20" s="71"/>
       <c r="G20" s="62"/>
       <c r="H20" s="66"/>
       <c r="I20" s="65"/>
@@ -2168,7 +2237,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -2232,7 +2301,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -2445,7 +2514,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -2541,7 +2610,7 @@
       </c>
       <c r="V32" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W32" s="13"/>
     </row>
@@ -2637,7 +2706,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2701,7 +2770,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -3766,13 +3835,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3784,6 +3846,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3794,8 +3863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3827,43 +3896,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3908,58 +3977,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
       <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -3984,23 +4053,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
       <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4039,7 +4108,7 @@
       <c r="M6" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="N6" s="89">
+      <c r="N6" s="74">
         <v>385000</v>
       </c>
       <c r="O6" s="66" t="s">
@@ -4054,9 +4123,9 @@
       <c r="R6" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="S6" s="88"/>
+      <c r="S6" s="73"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -4093,9 +4162,9 @@
       <c r="P7" s="68"/>
       <c r="Q7" s="66"/>
       <c r="R7" s="69"/>
-      <c r="S7" s="88"/>
+      <c r="S7" s="73"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -4122,9 +4191,9 @@
       <c r="P8" s="68"/>
       <c r="Q8" s="66"/>
       <c r="R8" s="69"/>
-      <c r="S8" s="88"/>
+      <c r="S8" s="73"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4153,7 +4222,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -4182,7 +4251,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -4211,7 +4280,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -4240,7 +4309,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -4271,7 +4340,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4300,7 +4369,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4329,7 +4398,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4358,7 +4427,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6074,6 +6143,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6085,13 +6161,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6135,43 +6204,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -6216,58 +6285,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
       <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -6292,23 +6361,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
       <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6343,7 +6412,7 @@
       <c r="M6" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="N6" s="89"/>
+      <c r="N6" s="74"/>
       <c r="O6" s="66" t="s">
         <v>121</v>
       </c>
@@ -6356,9 +6425,9 @@
       <c r="R6" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="S6" s="88"/>
+      <c r="S6" s="73"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6395,9 +6464,9 @@
       <c r="P7" s="68"/>
       <c r="Q7" s="66"/>
       <c r="R7" s="69"/>
-      <c r="S7" s="88"/>
+      <c r="S7" s="73"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6432,9 +6501,9 @@
       <c r="P8" s="68"/>
       <c r="Q8" s="66"/>
       <c r="R8" s="69"/>
-      <c r="S8" s="88"/>
+      <c r="S8" s="73"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6461,9 +6530,9 @@
       <c r="P9" s="68"/>
       <c r="Q9" s="66"/>
       <c r="R9" s="69"/>
-      <c r="S9" s="88"/>
+      <c r="S9" s="73"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6490,9 +6559,9 @@
       <c r="P10" s="68"/>
       <c r="Q10" s="66"/>
       <c r="R10" s="69"/>
-      <c r="S10" s="88"/>
+      <c r="S10" s="73"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6508,7 +6577,7 @@
       <c r="E11" s="63"/>
       <c r="F11" s="62"/>
       <c r="G11" s="62"/>
-      <c r="H11" s="85"/>
+      <c r="H11" s="70"/>
       <c r="I11" s="65"/>
       <c r="J11" s="66"/>
       <c r="K11" s="63"/>
@@ -6519,9 +6588,9 @@
       <c r="P11" s="68"/>
       <c r="Q11" s="66"/>
       <c r="R11" s="69"/>
-      <c r="S11" s="88"/>
+      <c r="S11" s="73"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6550,7 +6619,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6581,7 +6650,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6610,7 +6679,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6639,7 +6708,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6668,7 +6737,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8384,6 +8453,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8395,13 +8471,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8445,43 +8514,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8526,58 +8595,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
       <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -8602,23 +8671,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
       <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8672,7 +8741,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8703,7 +8772,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8732,7 +8801,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8761,7 +8830,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8790,7 +8859,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8819,7 +8888,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8848,7 +8917,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8879,7 +8948,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8908,7 +8977,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8937,7 +9006,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8966,7 +9035,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10682,6 +10751,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10693,13 +10769,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10743,43 +10812,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10824,58 +10893,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
       <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -10900,23 +10969,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
       <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10968,9 +11037,9 @@
       <c r="R6" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="S6" s="88"/>
+      <c r="S6" s="73"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -11025,9 +11094,9 @@
       <c r="R7" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="S7" s="88"/>
+      <c r="S7" s="73"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -11076,9 +11145,9 @@
       <c r="R8" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="S8" s="88"/>
+      <c r="S8" s="73"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -11129,9 +11198,9 @@
       <c r="R9" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="S9" s="88"/>
+      <c r="S9" s="73"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -11186,9 +11255,9 @@
       <c r="R10" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="S10" s="88"/>
+      <c r="S10" s="73"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11214,7 +11283,7 @@
       <c r="G11" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="85"/>
+      <c r="H11" s="70"/>
       <c r="I11" s="65" t="s">
         <v>112</v>
       </c>
@@ -11241,9 +11310,9 @@
       <c r="R11" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="S11" s="88"/>
+      <c r="S11" s="73"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11269,7 +11338,7 @@
       <c r="G12" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="85" t="s">
+      <c r="H12" s="70" t="s">
         <v>106</v>
       </c>
       <c r="I12" s="65"/>
@@ -11296,9 +11365,9 @@
       <c r="R12" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="S12" s="88"/>
+      <c r="S12" s="73"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11326,7 +11395,7 @@
       <c r="G13" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="86"/>
+      <c r="H13" s="71"/>
       <c r="I13" s="65" t="s">
         <v>112</v>
       </c>
@@ -11353,9 +11422,9 @@
       <c r="R13" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="S13" s="88"/>
+      <c r="S13" s="73"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11379,7 +11448,7 @@
       <c r="G14" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="86"/>
+      <c r="H14" s="71"/>
       <c r="I14" s="65"/>
       <c r="J14" s="66"/>
       <c r="K14" s="66"/>
@@ -11390,9 +11459,9 @@
       <c r="P14" s="68"/>
       <c r="Q14" s="66"/>
       <c r="R14" s="69"/>
-      <c r="S14" s="88"/>
+      <c r="S14" s="73"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11416,7 +11485,7 @@
       <c r="G15" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="86"/>
+      <c r="H15" s="71"/>
       <c r="I15" s="65"/>
       <c r="J15" s="66"/>
       <c r="K15" s="66"/>
@@ -11427,9 +11496,9 @@
       <c r="P15" s="68"/>
       <c r="Q15" s="66"/>
       <c r="R15" s="69"/>
-      <c r="S15" s="88"/>
+      <c r="S15" s="73"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11464,9 +11533,9 @@
       <c r="P16" s="68"/>
       <c r="Q16" s="66"/>
       <c r="R16" s="69"/>
-      <c r="S16" s="88"/>
+      <c r="S16" s="73"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -11493,7 +11562,7 @@
       <c r="H17" s="66"/>
       <c r="I17" s="65"/>
       <c r="J17" s="68"/>
-      <c r="K17" s="87"/>
+      <c r="K17" s="72"/>
       <c r="L17" s="68"/>
       <c r="M17" s="68"/>
       <c r="N17" s="66"/>
@@ -11501,7 +11570,7 @@
       <c r="P17" s="68"/>
       <c r="Q17" s="66"/>
       <c r="R17" s="69"/>
-      <c r="S17" s="88"/>
+      <c r="S17" s="73"/>
       <c r="T17" s="13"/>
       <c r="U17" s="59"/>
       <c r="V17" s="14"/>
@@ -11536,7 +11605,7 @@
       <c r="P18" s="68"/>
       <c r="Q18" s="66"/>
       <c r="R18" s="69"/>
-      <c r="S18" s="88"/>
+      <c r="S18" s="73"/>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
       <c r="V18" s="15"/>
@@ -11550,7 +11619,7 @@
       <c r="C19" s="61"/>
       <c r="D19" s="62"/>
       <c r="E19" s="63"/>
-      <c r="F19" s="86"/>
+      <c r="F19" s="71"/>
       <c r="G19" s="62"/>
       <c r="H19" s="66"/>
       <c r="I19" s="65"/>
@@ -11563,7 +11632,7 @@
       <c r="P19" s="68"/>
       <c r="Q19" s="66"/>
       <c r="R19" s="69"/>
-      <c r="S19" s="88"/>
+      <c r="S19" s="73"/>
       <c r="T19" s="13"/>
       <c r="U19" s="60" t="s">
         <v>39</v>
@@ -11581,7 +11650,7 @@
       <c r="C20" s="61"/>
       <c r="D20" s="62"/>
       <c r="E20" s="63"/>
-      <c r="F20" s="86"/>
+      <c r="F20" s="71"/>
       <c r="G20" s="62"/>
       <c r="H20" s="66"/>
       <c r="I20" s="65"/>
@@ -11594,7 +11663,7 @@
       <c r="P20" s="68"/>
       <c r="Q20" s="66"/>
       <c r="R20" s="69"/>
-      <c r="S20" s="88"/>
+      <c r="S20" s="73"/>
       <c r="T20" s="13"/>
       <c r="U20" s="9" t="s">
         <v>17</v>
@@ -13199,6 +13268,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -13210,13 +13286,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13260,43 +13329,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -13341,58 +13410,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -13417,23 +13486,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
       <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13459,7 +13528,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -13490,7 +13559,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -13519,7 +13588,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13548,7 +13617,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13577,7 +13646,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13606,7 +13675,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13635,7 +13704,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13666,7 +13735,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13695,7 +13764,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13724,7 +13793,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13753,7 +13822,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14984,6 +15053,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14995,13 +15071,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_TechGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_TechGlobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TG007X" sheetId="43" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="150">
   <si>
     <t>STT</t>
   </si>
@@ -467,6 +467,33 @@
   <si>
     <t>Lock: 123.31.30.101,09207</t>
   </si>
+  <si>
+    <t>124.158.005.014,16873</t>
+  </si>
+  <si>
+    <t>Kiểm tra hạn dịch vụ</t>
+  </si>
+  <si>
+    <t>Mất ID</t>
+  </si>
+  <si>
+    <t>Khởi tạo lại thiết bị</t>
+  </si>
+  <si>
+    <t>203.162.121.024,09007</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi GPS</t>
+  </si>
+  <si>
+    <t>Xử lý lại module GPS</t>
+  </si>
+  <si>
+    <t>TG.007S.---01.180405</t>
+  </si>
+  <si>
+    <t>203.162.121.024,09107</t>
+  </si>
 </sst>
 </file>
 
@@ -668,7 +695,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -883,9 +910,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -893,30 +917,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -936,6 +936,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1246,8 +1270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView showZeros="0" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1279,43 +1303,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1360,26 +1384,26 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="84" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="84"/>
+      <c r="L4" s="75"/>
       <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
@@ -1389,7 +1413,7 @@
       <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="81" t="s">
@@ -1398,20 +1422,20 @@
       <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="84" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="84" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1436,7 +1460,7 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="84"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
@@ -1446,13 +1470,13 @@
       <c r="M5" s="82"/>
       <c r="N5" s="82"/>
       <c r="O5" s="82"/>
-      <c r="P5" s="80"/>
+      <c r="P5" s="87"/>
       <c r="Q5" s="82"/>
       <c r="R5" s="82"/>
-      <c r="S5" s="83"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1504,9 +1528,9 @@
       <c r="R6" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="S6" s="73"/>
+      <c r="S6" s="72"/>
       <c r="T6" s="56"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1561,9 +1585,9 @@
       <c r="R7" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="S7" s="73"/>
+      <c r="S7" s="72"/>
       <c r="T7" s="56"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1618,9 +1642,9 @@
       <c r="R8" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="S8" s="73"/>
+      <c r="S8" s="72"/>
       <c r="T8" s="56"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1673,9 +1697,9 @@
       <c r="R9" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="S9" s="73"/>
+      <c r="S9" s="72"/>
       <c r="T9" s="56"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1730,9 +1754,9 @@
       <c r="R10" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="S10" s="73"/>
+      <c r="S10" s="72"/>
       <c r="T10" s="56"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1787,9 +1811,9 @@
       <c r="R11" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="S11" s="73"/>
+      <c r="S11" s="72"/>
       <c r="T11" s="56"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1842,9 +1866,9 @@
       <c r="R12" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="S12" s="73"/>
+      <c r="S12" s="72"/>
       <c r="T12" s="56"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1901,9 +1925,9 @@
       <c r="R13" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="S13" s="73"/>
+      <c r="S13" s="72"/>
       <c r="T13" s="56"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1958,9 +1982,9 @@
       <c r="R14" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="S14" s="73"/>
+      <c r="S14" s="72"/>
       <c r="T14" s="56"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -2013,9 +2037,9 @@
       <c r="R15" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="S15" s="73"/>
+      <c r="S15" s="72"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -2028,7 +2052,9 @@
       <c r="B16" s="61">
         <v>44797</v>
       </c>
-      <c r="C16" s="61"/>
+      <c r="C16" s="61">
+        <v>44802</v>
+      </c>
       <c r="D16" s="62" t="s">
         <v>65</v>
       </c>
@@ -2048,15 +2074,25 @@
       <c r="L16" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="M16" s="68"/>
+      <c r="M16" s="68" t="s">
+        <v>38</v>
+      </c>
       <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="69"/>
-      <c r="S16" s="73"/>
+      <c r="O16" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="P16" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q16" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="S16" s="72"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2069,7 +2105,9 @@
       <c r="B17" s="61">
         <v>44798</v>
       </c>
-      <c r="C17" s="61"/>
+      <c r="C17" s="61">
+        <v>44802</v>
+      </c>
       <c r="D17" s="62" t="s">
         <v>65</v>
       </c>
@@ -2087,7 +2125,7 @@
       <c r="J17" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="K17" s="75" t="s">
+      <c r="K17" s="74" t="s">
         <v>133</v>
       </c>
       <c r="L17" s="68" t="s">
@@ -2109,7 +2147,7 @@
       <c r="R17" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="S17" s="73"/>
+      <c r="S17" s="72"/>
       <c r="T17" s="13"/>
       <c r="U17" s="56"/>
       <c r="V17" s="14"/>
@@ -2122,7 +2160,9 @@
       <c r="B18" s="61">
         <v>44799</v>
       </c>
-      <c r="C18" s="61"/>
+      <c r="C18" s="61">
+        <v>44802</v>
+      </c>
       <c r="D18" s="62" t="s">
         <v>65</v>
       </c>
@@ -2160,7 +2200,7 @@
       <c r="R18" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="S18" s="73"/>
+      <c r="S18" s="72"/>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
       <c r="V18" s="15"/>
@@ -2173,7 +2213,9 @@
       <c r="B19" s="61">
         <v>44800</v>
       </c>
-      <c r="C19" s="61"/>
+      <c r="C19" s="61">
+        <v>44802</v>
+      </c>
       <c r="D19" s="62" t="s">
         <v>65</v>
       </c>
@@ -2192,14 +2234,26 @@
       <c r="K19" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="L19" s="68"/>
-      <c r="M19" s="68"/>
+      <c r="L19" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="M19" s="68" t="s">
+        <v>38</v>
+      </c>
       <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="68"/>
-      <c r="Q19" s="66"/>
-      <c r="R19" s="69"/>
-      <c r="S19" s="73"/>
+      <c r="O19" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="P19" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q19" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="S19" s="72"/>
       <c r="T19" s="13"/>
       <c r="U19" s="57" t="s">
         <v>39</v>
@@ -2237,7 +2291,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -2706,7 +2760,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2770,7 +2824,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -3835,6 +3889,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3846,13 +3907,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3863,8 +3917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView showZeros="0" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3896,43 +3950,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3977,26 +4031,26 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="84" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="84"/>
+      <c r="L4" s="75"/>
       <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
@@ -4006,7 +4060,7 @@
       <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="81" t="s">
@@ -4015,20 +4069,20 @@
       <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="84" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="84" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -4053,7 +4107,7 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="84"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
@@ -4063,13 +4117,13 @@
       <c r="M5" s="82"/>
       <c r="N5" s="82"/>
       <c r="O5" s="82"/>
-      <c r="P5" s="80"/>
+      <c r="P5" s="87"/>
       <c r="Q5" s="82"/>
       <c r="R5" s="82"/>
-      <c r="S5" s="83"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4108,7 +4162,7 @@
       <c r="M6" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="N6" s="74">
+      <c r="N6" s="73">
         <v>385000</v>
       </c>
       <c r="O6" s="66" t="s">
@@ -4123,9 +4177,9 @@
       <c r="R6" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="S6" s="73"/>
+      <c r="S6" s="72"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -4140,7 +4194,9 @@
       <c r="B7" s="61">
         <v>44797</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="61">
+        <v>44802</v>
+      </c>
       <c r="D7" s="62" t="s">
         <v>102</v>
       </c>
@@ -4151,20 +4207,38 @@
       <c r="G7" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="66"/>
+      <c r="H7" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="I7" s="65" t="s">
+        <v>141</v>
+      </c>
+      <c r="J7" s="66" t="s">
+        <v>143</v>
+      </c>
       <c r="K7" s="67"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
+      <c r="L7" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="M7" s="68" t="s">
+        <v>144</v>
+      </c>
       <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="69"/>
-      <c r="S7" s="73"/>
+      <c r="O7" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="72"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -4191,9 +4265,9 @@
       <c r="P8" s="68"/>
       <c r="Q8" s="66"/>
       <c r="R8" s="69"/>
-      <c r="S8" s="73"/>
+      <c r="S8" s="72"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4222,7 +4296,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -4251,7 +4325,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -4280,7 +4354,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -4309,7 +4383,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -4340,7 +4414,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4369,7 +4443,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4398,7 +4472,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4427,7 +4501,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4545,7 +4619,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -4950,7 +5024,7 @@
       </c>
       <c r="V33" s="9">
         <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33" s="13"/>
     </row>
@@ -5078,7 +5152,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -6143,13 +6217,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6161,6 +6228,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6171,8 +6245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S11"/>
+    <sheetView showZeros="0" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6204,43 +6278,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -6285,26 +6359,26 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="84" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="84"/>
+      <c r="L4" s="75"/>
       <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
@@ -6314,7 +6388,7 @@
       <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="81" t="s">
@@ -6323,20 +6397,20 @@
       <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="84" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="84" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -6361,7 +6435,7 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="84"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
@@ -6371,13 +6445,13 @@
       <c r="M5" s="82"/>
       <c r="N5" s="82"/>
       <c r="O5" s="82"/>
-      <c r="P5" s="80"/>
+      <c r="P5" s="87"/>
       <c r="Q5" s="82"/>
       <c r="R5" s="82"/>
-      <c r="S5" s="83"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6412,7 +6486,7 @@
       <c r="M6" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="N6" s="74"/>
+      <c r="N6" s="73"/>
       <c r="O6" s="66" t="s">
         <v>121</v>
       </c>
@@ -6425,9 +6499,9 @@
       <c r="R6" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="S6" s="73"/>
+      <c r="S6" s="72"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6442,7 +6516,9 @@
       <c r="B7" s="61">
         <v>44797</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="61">
+        <v>44802</v>
+      </c>
       <c r="D7" s="62" t="s">
         <v>66</v>
       </c>
@@ -6454,19 +6530,33 @@
         <v>63</v>
       </c>
       <c r="H7" s="62"/>
-      <c r="I7" s="65"/>
+      <c r="I7" s="65" t="s">
+        <v>149</v>
+      </c>
       <c r="J7" s="66"/>
       <c r="K7" s="67"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
+      <c r="L7" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="M7" s="68" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="69"/>
-      <c r="S7" s="73"/>
+      <c r="O7" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="72"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6479,7 +6569,9 @@
       <c r="B8" s="61">
         <v>44797</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="61">
+        <v>44802</v>
+      </c>
       <c r="D8" s="62" t="s">
         <v>66</v>
       </c>
@@ -6491,19 +6583,33 @@
         <v>63</v>
       </c>
       <c r="H8" s="62"/>
-      <c r="I8" s="65"/>
+      <c r="I8" s="65" t="s">
+        <v>149</v>
+      </c>
       <c r="J8" s="66"/>
       <c r="K8" s="67"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
+      <c r="L8" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="M8" s="68" t="s">
+        <v>38</v>
+      </c>
       <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="69"/>
-      <c r="S8" s="73"/>
+      <c r="O8" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="72"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6530,9 +6636,9 @@
       <c r="P9" s="68"/>
       <c r="Q9" s="66"/>
       <c r="R9" s="69"/>
-      <c r="S9" s="73"/>
+      <c r="S9" s="72"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6559,9 +6665,9 @@
       <c r="P10" s="68"/>
       <c r="Q10" s="66"/>
       <c r="R10" s="69"/>
-      <c r="S10" s="73"/>
+      <c r="S10" s="72"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6588,9 +6694,9 @@
       <c r="P11" s="68"/>
       <c r="Q11" s="66"/>
       <c r="R11" s="69"/>
-      <c r="S11" s="73"/>
+      <c r="S11" s="72"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6619,7 +6725,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6650,7 +6756,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6679,7 +6785,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6708,7 +6814,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6737,7 +6843,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6855,7 +6961,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -7324,7 +7430,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -7388,7 +7494,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -8453,13 +8559,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8471,6 +8570,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8481,7 +8587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
@@ -8514,43 +8620,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8595,26 +8701,26 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="84" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="84"/>
+      <c r="L4" s="75"/>
       <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
@@ -8624,7 +8730,7 @@
       <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="81" t="s">
@@ -8633,20 +8739,20 @@
       <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="84" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="84" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -8671,7 +8777,7 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="84"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
@@ -8681,13 +8787,13 @@
       <c r="M5" s="82"/>
       <c r="N5" s="82"/>
       <c r="O5" s="82"/>
-      <c r="P5" s="80"/>
+      <c r="P5" s="87"/>
       <c r="Q5" s="82"/>
       <c r="R5" s="82"/>
-      <c r="S5" s="83"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8741,7 +8847,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8772,7 +8878,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8801,7 +8907,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8830,7 +8936,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8859,7 +8965,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8888,7 +8994,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8917,7 +9023,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8948,7 +9054,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8977,7 +9083,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -9006,7 +9112,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -9035,7 +9141,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10751,13 +10857,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10769,6 +10868,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10779,8 +10885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S20"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10812,43 +10918,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10893,26 +10999,26 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="84" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="84"/>
+      <c r="L4" s="75"/>
       <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
@@ -10922,7 +11028,7 @@
       <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="81" t="s">
@@ -10931,20 +11037,20 @@
       <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="84" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="84" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -10969,7 +11075,7 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="84"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
@@ -10979,13 +11085,13 @@
       <c r="M5" s="82"/>
       <c r="N5" s="82"/>
       <c r="O5" s="82"/>
-      <c r="P5" s="80"/>
+      <c r="P5" s="87"/>
       <c r="Q5" s="82"/>
       <c r="R5" s="82"/>
-      <c r="S5" s="83"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11037,9 +11143,9 @@
       <c r="R6" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="S6" s="73"/>
+      <c r="S6" s="72"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -11094,9 +11200,9 @@
       <c r="R7" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="S7" s="73"/>
+      <c r="S7" s="72"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -11145,9 +11251,9 @@
       <c r="R8" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="S8" s="73"/>
+      <c r="S8" s="72"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -11198,9 +11304,9 @@
       <c r="R9" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="S9" s="73"/>
+      <c r="S9" s="72"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -11255,9 +11361,9 @@
       <c r="R10" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="S10" s="73"/>
+      <c r="S10" s="72"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11310,9 +11416,9 @@
       <c r="R11" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="S11" s="73"/>
+      <c r="S11" s="72"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11365,9 +11471,9 @@
       <c r="R12" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="S12" s="73"/>
+      <c r="S12" s="72"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11422,9 +11528,9 @@
       <c r="R13" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="S13" s="73"/>
+      <c r="S13" s="72"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11437,7 +11543,9 @@
       <c r="B14" s="61">
         <v>44797</v>
       </c>
-      <c r="C14" s="61"/>
+      <c r="C14" s="61">
+        <v>44802</v>
+      </c>
       <c r="D14" s="62" t="s">
         <v>69</v>
       </c>
@@ -11449,19 +11557,33 @@
         <v>63</v>
       </c>
       <c r="H14" s="71"/>
-      <c r="I14" s="65"/>
+      <c r="I14" s="65" t="s">
+        <v>145</v>
+      </c>
       <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
+      <c r="K14" s="66" t="s">
+        <v>108</v>
+      </c>
       <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
+      <c r="M14" s="68" t="s">
+        <v>111</v>
+      </c>
       <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="69"/>
-      <c r="S14" s="73"/>
+      <c r="O14" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="S14" s="72"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11474,7 +11596,9 @@
       <c r="B15" s="61">
         <v>44797</v>
       </c>
-      <c r="C15" s="61"/>
+      <c r="C15" s="61">
+        <v>44802</v>
+      </c>
       <c r="D15" s="62" t="s">
         <v>69</v>
       </c>
@@ -11486,19 +11610,33 @@
         <v>63</v>
       </c>
       <c r="H15" s="71"/>
-      <c r="I15" s="65"/>
+      <c r="I15" s="65" t="s">
+        <v>109</v>
+      </c>
       <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
+      <c r="K15" s="66" t="s">
+        <v>108</v>
+      </c>
       <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
+      <c r="M15" s="68" t="s">
+        <v>111</v>
+      </c>
       <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="69"/>
-      <c r="S15" s="73"/>
+      <c r="O15" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="P15" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q15" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="S15" s="72"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11511,7 +11649,9 @@
       <c r="B16" s="61">
         <v>44797</v>
       </c>
-      <c r="C16" s="61"/>
+      <c r="C16" s="61">
+        <v>44802</v>
+      </c>
       <c r="D16" s="62" t="s">
         <v>69</v>
       </c>
@@ -11523,19 +11663,35 @@
         <v>63</v>
       </c>
       <c r="H16" s="62"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
+      <c r="I16" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="J16" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="K16" s="66" t="s">
+        <v>108</v>
+      </c>
       <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
+      <c r="M16" s="68" t="s">
+        <v>147</v>
+      </c>
       <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="69"/>
-      <c r="S16" s="73"/>
+      <c r="O16" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="P16" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q16" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="R16" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="S16" s="72"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -11548,7 +11704,9 @@
       <c r="B17" s="61">
         <v>44797</v>
       </c>
-      <c r="C17" s="61"/>
+      <c r="C17" s="61">
+        <v>44802</v>
+      </c>
       <c r="D17" s="62" t="s">
         <v>69</v>
       </c>
@@ -11560,17 +11718,31 @@
         <v>63</v>
       </c>
       <c r="H17" s="66"/>
-      <c r="I17" s="65"/>
+      <c r="I17" s="65" t="s">
+        <v>109</v>
+      </c>
       <c r="J17" s="68"/>
-      <c r="K17" s="72"/>
+      <c r="K17" s="74" t="s">
+        <v>108</v>
+      </c>
       <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
+      <c r="M17" s="68" t="s">
+        <v>111</v>
+      </c>
       <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="69"/>
-      <c r="S17" s="73"/>
+      <c r="O17" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="P17" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q17" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="S17" s="72"/>
       <c r="T17" s="13"/>
       <c r="U17" s="59"/>
       <c r="V17" s="14"/>
@@ -11583,7 +11755,9 @@
       <c r="B18" s="61">
         <v>44797</v>
       </c>
-      <c r="C18" s="61"/>
+      <c r="C18" s="61">
+        <v>44802</v>
+      </c>
       <c r="D18" s="62" t="s">
         <v>69</v>
       </c>
@@ -11596,16 +11770,30 @@
       </c>
       <c r="H18" s="66"/>
       <c r="I18" s="65"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
+      <c r="J18" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="66" t="s">
+        <v>108</v>
+      </c>
       <c r="L18" s="68"/>
-      <c r="M18" s="68"/>
+      <c r="M18" s="68" t="s">
+        <v>107</v>
+      </c>
       <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="69"/>
-      <c r="S18" s="73"/>
+      <c r="O18" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="P18" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q18" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="S18" s="72"/>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
       <c r="V18" s="15"/>
@@ -11632,7 +11820,7 @@
       <c r="P19" s="68"/>
       <c r="Q19" s="66"/>
       <c r="R19" s="69"/>
-      <c r="S19" s="73"/>
+      <c r="S19" s="72"/>
       <c r="T19" s="13"/>
       <c r="U19" s="60" t="s">
         <v>39</v>
@@ -11663,14 +11851,14 @@
       <c r="P20" s="68"/>
       <c r="Q20" s="66"/>
       <c r="R20" s="69"/>
-      <c r="S20" s="73"/>
+      <c r="S20" s="72"/>
       <c r="T20" s="13"/>
       <c r="U20" s="9" t="s">
         <v>17</v>
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -11702,7 +11890,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -11915,7 +12103,7 @@
       </c>
       <c r="V28" s="9">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="13"/>
     </row>
@@ -12043,7 +12231,7 @@
       </c>
       <c r="V32" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W32" s="13"/>
     </row>
@@ -12171,7 +12359,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -12203,7 +12391,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -13268,13 +13456,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -13286,6 +13467,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13329,43 +13517,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -13410,58 +13598,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="84" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="84"/>
+      <c r="L4" s="75"/>
       <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
       <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="90" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="84" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="84" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -13486,7 +13674,7 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="84"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
@@ -13495,14 +13683,14 @@
       </c>
       <c r="M5" s="82"/>
       <c r="N5" s="82"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="83"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13528,7 +13716,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -13559,7 +13747,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -13588,7 +13776,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13617,7 +13805,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13646,7 +13834,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13675,7 +13863,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13704,7 +13892,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13735,7 +13923,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13764,7 +13952,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13793,7 +13981,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13822,7 +14010,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -15053,13 +15241,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -15071,6 +15252,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
